--- a/Income/MAS_inc.xlsx
+++ b/Income/MAS_inc.xlsx
@@ -2362,16 +2362,16 @@
         <v>0.0878</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.0749</v>
+        <v>0.1273</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.0557</v>
+        <v>0.1101</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.0574</v>
+        <v>0.1113</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.0841</v>
+        <v>0.1385</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.1191</v>
@@ -3976,16 +3976,16 @@
         <v>0.1987</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.1976</v>
+        <v>0.1926</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0.1804</v>
+        <v>0.1752</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.1748</v>
+        <v>0.1696</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.1674</v>
+        <v>0.1622</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0.1825</v>
